--- a/demo/Results_rt/transform/rt/Anova.xlsx
+++ b/demo/Results_rt/transform/rt/Anova.xlsx
@@ -172,16 +172,16 @@
         <v>523</v>
       </c>
       <c r="D2" s="0">
-        <v>89280.610456124996</v>
+        <v>89280.610440320073</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.9941761806975955</v>
+        <v>0.99417618069657054</v>
       </c>
       <c r="G2" s="0">
-        <v>26.131102096857052</v>
+        <v>26.131102094544122</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
@@ -201,16 +201,16 @@
         <v>523</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2239565334645999</v>
+        <v>4.2239565329599165</v>
       </c>
       <c r="E3" s="0">
-        <v>0.040353167850668004</v>
+        <v>0.040353167862569483</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0080116930976304977</v>
+        <v>0.0080116930966809188</v>
       </c>
       <c r="G3" s="0">
-        <v>0.17973757231646062</v>
+        <v>0.17973757230572299</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
@@ -230,16 +230,16 @@
         <v>523</v>
       </c>
       <c r="D4" s="0">
-        <v>20.754444432107647</v>
+        <v>20.754444434169908</v>
       </c>
       <c r="E4" s="0">
         <v>2.1197342769951888e-09</v>
       </c>
       <c r="F4" s="0">
-        <v>0.07353097476946846</v>
+        <v>0.073530974776237615</v>
       </c>
       <c r="G4" s="0">
-        <v>0.56344263350934731</v>
+        <v>0.56344263353734048</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
@@ -259,16 +259,16 @@
         <v>523</v>
       </c>
       <c r="D5" s="0">
-        <v>0.36485448452817204</v>
+        <v>0.36485448456462233</v>
       </c>
       <c r="E5" s="0">
-        <v>0.69447425188918688</v>
+        <v>0.69447425186390854</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0013932930604466773</v>
+        <v>0.0013932930605856785</v>
       </c>
       <c r="G5" s="0">
-        <v>0.074705743675424541</v>
+        <v>0.074705743679156222</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>15</v>

--- a/demo/Results_rt/transform/rt/Anova.xlsx
+++ b/demo/Results_rt/transform/rt/Anova.xlsx
@@ -57,7 +57,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>medium</t>
+    <t>small to medium</t>
   </si>
   <si>
     <t>very small</t>
@@ -126,9 +126,9 @@
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
-    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="10" customWidth="true"/>
+    <col min="8" max="8" width="16" customWidth="true"/>
     <col min="9" max="9" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -169,19 +169,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D2" s="0">
-        <v>89280.610440320073</v>
+        <v>76516.546709838207</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0.99417618069657054</v>
+        <v>0.9930694846071505</v>
       </c>
       <c r="G2" s="0">
-        <v>26.131102094544122</v>
+        <v>23.940711210346596</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>12</v>
@@ -198,19 +198,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2239565329599165</v>
+        <v>5.9992645534675786</v>
       </c>
       <c r="E3" s="0">
-        <v>0.040353167862569483</v>
+        <v>0.014632073361372622</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0080116930966809188</v>
+        <v>0.011109764303898541</v>
       </c>
       <c r="G3" s="0">
-        <v>0.17973757230572299</v>
+        <v>0.21198658274034568</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>13</v>
@@ -227,19 +227,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D4" s="0">
-        <v>20.754444434169908</v>
+        <v>13.257890899803465</v>
       </c>
       <c r="E4" s="0">
-        <v>2.1197342769951888e-09</v>
+        <v>2.4019336276603909e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>0.073530974776237615</v>
+        <v>0.047306039652397755</v>
       </c>
       <c r="G4" s="0">
-        <v>0.56344263353734048</v>
+        <v>0.4456681370555548</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
@@ -256,19 +256,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D5" s="0">
-        <v>0.36485448456462233</v>
+        <v>0.49583759460992477</v>
       </c>
       <c r="E5" s="0">
-        <v>0.69447425186390854</v>
+        <v>0.609340678459378</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0013932930605856785</v>
+        <v>0.001853627327694597</v>
       </c>
       <c r="G5" s="0">
-        <v>0.074705743679156222</v>
+        <v>0.086187461796569942</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>15</v>
